--- a/data/전자책/배포버전_v0.1/01_은퇴계획워크시트_v1.0.xlsx
+++ b/data/전자책/배포버전_v0.1/01_은퇴계획워크시트_v1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdjhs\비즈니스PT\전자책\배포버전_v0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141BF744-3668-4866-9F2C-028AC4FB1FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFB2D9C-7EB2-4942-BB72-2647AE2BDB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6735" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="766" xr2:uid="{3CE6A4AE-AFDE-492F-8072-98DC519E0F45}"/>
   </bookViews>
@@ -731,7 +731,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>◀자산별 배당률은 매월 변경됩니다.(기준년월=2024.12)</t>
+    <t>◀주의! 배당률은 매월 변경해야 합니다.(기준년월=2025.01)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1669,15 +1669,15 @@
         <v>18</v>
       </c>
       <c r="C9" s="12">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ref="D9:D19" si="0">C9*12</f>
-        <v>2688</v>
+        <v>3600</v>
       </c>
       <c r="E9" s="44">
         <f t="shared" ref="E9:E19" si="1">D9/($C$4*(1-$C$5))</f>
-        <v>33393.378470712465</v>
+        <v>44723.27473756134</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -53913,7 +53913,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="32">
-        <v>3.4099999999999998E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.6">
@@ -53924,7 +53924,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="32">
-        <v>7.1300000000000002E-2</v>
+        <v>7.3899999999999993E-2</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.6">
@@ -53935,7 +53935,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="32">
-        <v>9.3700000000000006E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.6">
@@ -53946,7 +53946,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="32">
-        <v>3.6600000000000001E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.6">
@@ -53957,7 +53957,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="32">
-        <v>3.56E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.6">
@@ -53968,7 +53968,7 @@
         <v>55</v>
       </c>
       <c r="D9" s="32">
-        <v>4.7199999999999999E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.6">
@@ -53979,7 +53979,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="32">
-        <v>5.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.6">
@@ -53990,7 +53990,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="32">
-        <v>1.1599999999999999E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.6">
@@ -54035,7 +54035,7 @@
       </c>
       <c r="F15" s="33">
         <f>D15 * VLOOKUP(B15, $C$4:$D$11, 2, FALSE) + E15 * VLOOKUP(C15, $C$4:$D$11, 2, FALSE)</f>
-        <v>3.4099999999999998E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.6">
@@ -54053,7 +54053,7 @@
       </c>
       <c r="F16" s="33">
         <f t="shared" ref="F16:F79" si="0">D16 * VLOOKUP(B16, $C$4:$D$11, 2, FALSE) + E16 * VLOOKUP(C16, $C$4:$D$11, 2, FALSE)</f>
-        <v>3.7819999999999999E-2</v>
+        <v>4.0510000000000004E-2</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.6">
@@ -54071,7 +54071,7 @@
       </c>
       <c r="F17" s="33">
         <f t="shared" si="0"/>
-        <v>4.1540000000000001E-2</v>
+        <v>4.4220000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.6">
@@ -54089,7 +54089,7 @@
       </c>
       <c r="F18" s="33">
         <f t="shared" si="0"/>
-        <v>4.5259999999999995E-2</v>
+        <v>4.793E-2</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.6">
@@ -54107,7 +54107,7 @@
       </c>
       <c r="F19" s="33">
         <f t="shared" si="0"/>
-        <v>4.8980000000000003E-2</v>
+        <v>5.1639999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.6">
@@ -54125,7 +54125,7 @@
       </c>
       <c r="F20" s="33">
         <f t="shared" si="0"/>
-        <v>5.2699999999999997E-2</v>
+        <v>5.5349999999999996E-2</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.6">
@@ -54143,7 +54143,7 @@
       </c>
       <c r="F21" s="33">
         <f t="shared" si="0"/>
-        <v>5.6419999999999998E-2</v>
+        <v>5.9060000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.6">
@@ -54161,7 +54161,7 @@
       </c>
       <c r="F22" s="33">
         <f t="shared" si="0"/>
-        <v>6.0139999999999999E-2</v>
+        <v>6.2769999999999992E-2</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.6">
@@ -54179,7 +54179,7 @@
       </c>
       <c r="F23" s="33">
         <f t="shared" si="0"/>
-        <v>6.386E-2</v>
+        <v>6.6479999999999997E-2</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
@@ -54200,7 +54200,7 @@
       </c>
       <c r="F24" s="33">
         <f t="shared" si="0"/>
-        <v>6.7580000000000001E-2</v>
+        <v>7.0190000000000002E-2</v>
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
@@ -54221,7 +54221,7 @@
       </c>
       <c r="F25" s="33">
         <f t="shared" si="0"/>
-        <v>7.1300000000000002E-2</v>
+        <v>7.3899999999999993E-2</v>
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
@@ -54242,7 +54242,7 @@
       </c>
       <c r="F26" s="33">
         <f t="shared" si="0"/>
-        <v>3.4099999999999998E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.6">
@@ -54260,7 +54260,7 @@
       </c>
       <c r="F27" s="33">
         <f t="shared" si="0"/>
-        <v>4.0059999999999998E-2</v>
+        <v>4.2840000000000003E-2</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.6">
@@ -54278,7 +54278,7 @@
       </c>
       <c r="F28" s="33">
         <f t="shared" si="0"/>
-        <v>4.6020000000000005E-2</v>
+        <v>4.888E-2</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.6">
@@ -54296,7 +54296,7 @@
       </c>
       <c r="F29" s="33">
         <f t="shared" si="0"/>
-        <v>5.1979999999999998E-2</v>
+        <v>5.4919999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.6">
@@ -54314,7 +54314,7 @@
       </c>
       <c r="F30" s="33">
         <f t="shared" si="0"/>
-        <v>5.7940000000000005E-2</v>
+        <v>6.096E-2</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.6">
@@ -54332,7 +54332,7 @@
       </c>
       <c r="F31" s="33">
         <f t="shared" si="0"/>
-        <v>6.3899999999999998E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.6">
@@ -54350,7 +54350,7 @@
       </c>
       <c r="F32" s="33">
         <f t="shared" si="0"/>
-        <v>6.9860000000000005E-2</v>
+        <v>7.3039999999999994E-2</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.6">
@@ -54368,7 +54368,7 @@
       </c>
       <c r="F33" s="33">
         <f t="shared" si="0"/>
-        <v>7.5819999999999999E-2</v>
+        <v>7.9079999999999984E-2</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.6">
@@ -54386,7 +54386,7 @@
       </c>
       <c r="F34" s="33">
         <f t="shared" si="0"/>
-        <v>8.1780000000000019E-2</v>
+        <v>8.5120000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.6">
@@ -54404,7 +54404,7 @@
       </c>
       <c r="F35" s="33">
         <f t="shared" si="0"/>
-        <v>8.7739999999999999E-2</v>
+        <v>9.1160000000000005E-2</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -54422,7 +54422,7 @@
       </c>
       <c r="F36" s="33">
         <f t="shared" si="0"/>
-        <v>9.3700000000000006E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -54440,7 +54440,7 @@
       </c>
       <c r="F37" s="33">
         <f t="shared" si="0"/>
-        <v>3.4099999999999998E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.6">
@@ -54458,7 +54458,7 @@
       </c>
       <c r="F38" s="33">
         <f t="shared" si="0"/>
-        <v>3.4349999999999999E-2</v>
+        <v>3.7510000000000002E-2</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.6">
@@ -54476,7 +54476,7 @@
       </c>
       <c r="F39" s="33">
         <f t="shared" si="0"/>
-        <v>3.4599999999999999E-2</v>
+        <v>3.8220000000000004E-2</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.6">
@@ -54494,7 +54494,7 @@
       </c>
       <c r="F40" s="33">
         <f t="shared" si="0"/>
-        <v>3.4849999999999999E-2</v>
+        <v>3.8929999999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.6">
@@ -54512,7 +54512,7 @@
       </c>
       <c r="F41" s="33">
         <f t="shared" si="0"/>
-        <v>3.5099999999999999E-2</v>
+        <v>3.9640000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.6">
@@ -54530,7 +54530,7 @@
       </c>
       <c r="F42" s="33">
         <f t="shared" si="0"/>
-        <v>3.5349999999999999E-2</v>
+        <v>4.0349999999999997E-2</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.6">
@@ -54548,7 +54548,7 @@
       </c>
       <c r="F43" s="33">
         <f t="shared" si="0"/>
-        <v>3.56E-2</v>
+        <v>4.1059999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.6">
@@ -54566,7 +54566,7 @@
       </c>
       <c r="F44" s="33">
         <f t="shared" si="0"/>
-        <v>3.585E-2</v>
+        <v>4.1770000000000002E-2</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.6">
@@ -54584,7 +54584,7 @@
       </c>
       <c r="F45" s="33">
         <f t="shared" si="0"/>
-        <v>3.61E-2</v>
+        <v>4.2480000000000004E-2</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.6">
@@ -54602,7 +54602,7 @@
       </c>
       <c r="F46" s="33">
         <f t="shared" si="0"/>
-        <v>3.6350000000000007E-2</v>
+        <v>4.3190000000000006E-2</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -54620,7 +54620,7 @@
       </c>
       <c r="F47" s="33">
         <f t="shared" si="0"/>
-        <v>3.6600000000000001E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -54638,7 +54638,7 @@
       </c>
       <c r="F48" s="33">
         <f t="shared" si="0"/>
-        <v>3.4099999999999998E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.6">
@@ -54656,7 +54656,7 @@
       </c>
       <c r="F49" s="33">
         <f t="shared" si="0"/>
-        <v>3.4249999999999996E-2</v>
+        <v>3.7040000000000003E-2</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.6">
@@ -54674,7 +54674,7 @@
       </c>
       <c r="F50" s="33">
         <f t="shared" si="0"/>
-        <v>3.44E-2</v>
+        <v>3.7280000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.6">
@@ -54692,7 +54692,7 @@
       </c>
       <c r="F51" s="33">
         <f t="shared" si="0"/>
-        <v>3.4549999999999997E-2</v>
+        <v>3.7519999999999998E-2</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.6">
@@ -54710,7 +54710,7 @@
       </c>
       <c r="F52" s="33">
         <f t="shared" si="0"/>
-        <v>3.4700000000000002E-2</v>
+        <v>3.7760000000000002E-2</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.6">
@@ -54728,7 +54728,7 @@
       </c>
       <c r="F53" s="33">
         <f t="shared" si="0"/>
-        <v>3.4849999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.6">
@@ -54746,7 +54746,7 @@
       </c>
       <c r="F54" s="33">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
+        <v>3.8239999999999996E-2</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.6">
@@ -54764,7 +54764,7 @@
       </c>
       <c r="F55" s="33">
         <f t="shared" si="0"/>
-        <v>3.5150000000000001E-2</v>
+        <v>3.8479999999999993E-2</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.6">
@@ -54782,7 +54782,7 @@
       </c>
       <c r="F56" s="33">
         <f t="shared" si="0"/>
-        <v>3.5299999999999998E-2</v>
+        <v>3.8719999999999997E-2</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.6">
@@ -54800,7 +54800,7 @@
       </c>
       <c r="F57" s="33">
         <f t="shared" si="0"/>
-        <v>3.5449999999999995E-2</v>
+        <v>3.8960000000000002E-2</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -54818,7 +54818,7 @@
       </c>
       <c r="F58" s="33">
         <f t="shared" si="0"/>
-        <v>3.56E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -54836,7 +54836,7 @@
       </c>
       <c r="F59" s="33">
         <f t="shared" si="0"/>
-        <v>3.4099999999999998E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.6">
@@ -54854,7 +54854,7 @@
       </c>
       <c r="F60" s="33">
         <f t="shared" si="0"/>
-        <v>3.5409999999999997E-2</v>
+        <v>3.8210000000000008E-2</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.6">
@@ -54872,7 +54872,7 @@
       </c>
       <c r="F61" s="33">
         <f t="shared" si="0"/>
-        <v>3.6720000000000003E-2</v>
+        <v>3.9620000000000002E-2</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.6">
@@ -54890,7 +54890,7 @@
       </c>
       <c r="F62" s="33">
         <f t="shared" si="0"/>
-        <v>3.8029999999999994E-2</v>
+        <v>4.1029999999999997E-2</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.6">
@@ -54908,7 +54908,7 @@
       </c>
       <c r="F63" s="33">
         <f t="shared" si="0"/>
-        <v>3.934E-2</v>
+        <v>4.2440000000000005E-2</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.6">
@@ -54926,7 +54926,7 @@
       </c>
       <c r="F64" s="33">
         <f t="shared" si="0"/>
-        <v>4.0649999999999999E-2</v>
+        <v>4.385E-2</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.6">
@@ -54944,7 +54944,7 @@
       </c>
       <c r="F65" s="33">
         <f t="shared" si="0"/>
-        <v>4.1959999999999997E-2</v>
+        <v>4.5259999999999995E-2</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.6">
@@ -54962,7 +54962,7 @@
       </c>
       <c r="F66" s="33">
         <f t="shared" si="0"/>
-        <v>4.3270000000000003E-2</v>
+        <v>4.6669999999999996E-2</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.6">
@@ -54980,7 +54980,7 @@
       </c>
       <c r="F67" s="33">
         <f t="shared" si="0"/>
-        <v>4.4580000000000002E-2</v>
+        <v>4.8080000000000005E-2</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.6">
@@ -54998,7 +54998,7 @@
       </c>
       <c r="F68" s="33">
         <f t="shared" si="0"/>
-        <v>4.589E-2</v>
+        <v>4.9490000000000006E-2</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -55016,7 +55016,7 @@
       </c>
       <c r="F69" s="33">
         <f t="shared" si="0"/>
-        <v>4.7199999999999999E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -55034,7 +55034,7 @@
       </c>
       <c r="F70" s="33">
         <f t="shared" si="0"/>
-        <v>3.4099999999999998E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.6">
@@ -55052,7 +55052,7 @@
       </c>
       <c r="F71" s="33">
         <f t="shared" si="0"/>
-        <v>3.1269999999999999E-2</v>
+        <v>3.3680000000000002E-2</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.6">
@@ -55070,7 +55070,7 @@
       </c>
       <c r="F72" s="33">
         <f t="shared" si="0"/>
-        <v>2.844E-2</v>
+        <v>3.056E-2</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.6">
@@ -55088,7 +55088,7 @@
       </c>
       <c r="F73" s="33">
         <f t="shared" si="0"/>
-        <v>2.5609999999999997E-2</v>
+        <v>2.7439999999999999E-2</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.6">
@@ -55106,7 +55106,7 @@
       </c>
       <c r="F74" s="33">
         <f t="shared" si="0"/>
-        <v>2.2779999999999998E-2</v>
+        <v>2.4319999999999998E-2</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.6">
@@ -55124,7 +55124,7 @@
       </c>
       <c r="F75" s="33">
         <f t="shared" si="0"/>
-        <v>1.9949999999999999E-2</v>
+        <v>2.12E-2</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.6">
@@ -55142,7 +55142,7 @@
       </c>
       <c r="F76" s="33">
         <f t="shared" si="0"/>
-        <v>1.712E-2</v>
+        <v>1.8079999999999999E-2</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.6">
@@ -55160,7 +55160,7 @@
       </c>
       <c r="F77" s="33">
         <f t="shared" si="0"/>
-        <v>1.4289999999999999E-2</v>
+        <v>1.4959999999999999E-2</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.6">
@@ -55178,7 +55178,7 @@
       </c>
       <c r="F78" s="33">
         <f t="shared" si="0"/>
-        <v>1.146E-2</v>
+        <v>1.184E-2</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.6">
@@ -55196,7 +55196,7 @@
       </c>
       <c r="F79" s="33">
         <f t="shared" si="0"/>
-        <v>8.6299999999999988E-3</v>
+        <v>8.7200000000000003E-3</v>
       </c>
     </row>
     <row r="80" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -55214,7 +55214,7 @@
       </c>
       <c r="F80" s="33">
         <f t="shared" ref="F80:F143" si="1">D80 * VLOOKUP(B80, $C$4:$D$11, 2, FALSE) + E80 * VLOOKUP(C80, $C$4:$D$11, 2, FALSE)</f>
-        <v>5.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -55232,7 +55232,7 @@
       </c>
       <c r="F81" s="33">
         <f t="shared" si="1"/>
-        <v>3.4099999999999998E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.6">
@@ -55250,7 +55250,7 @@
       </c>
       <c r="F82" s="33">
         <f t="shared" si="1"/>
-        <v>3.1849999999999996E-2</v>
+        <v>3.4340000000000002E-2</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.6">
@@ -55268,7 +55268,7 @@
       </c>
       <c r="F83" s="33">
         <f t="shared" si="1"/>
-        <v>2.9599999999999998E-2</v>
+        <v>3.1879999999999999E-2</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.6">
@@ -55286,7 +55286,7 @@
       </c>
       <c r="F84" s="33">
         <f t="shared" si="1"/>
-        <v>2.7349999999999999E-2</v>
+        <v>2.9419999999999998E-2</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.6">
@@ -55304,7 +55304,7 @@
       </c>
       <c r="F85" s="33">
         <f t="shared" si="1"/>
-        <v>2.5099999999999997E-2</v>
+        <v>2.6959999999999998E-2</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.6">
@@ -55322,7 +55322,7 @@
       </c>
       <c r="F86" s="33">
         <f t="shared" si="1"/>
-        <v>2.2849999999999999E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.6">
@@ -55340,7 +55340,7 @@
       </c>
       <c r="F87" s="33">
         <f t="shared" si="1"/>
-        <v>2.06E-2</v>
+        <v>2.2040000000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.6">
@@ -55358,7 +55358,7 @@
       </c>
       <c r="F88" s="33">
         <f t="shared" si="1"/>
-        <v>1.8349999999999998E-2</v>
+        <v>1.958E-2</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.6">
@@ -55376,7 +55376,7 @@
       </c>
       <c r="F89" s="33">
         <f t="shared" si="1"/>
-        <v>1.61E-2</v>
+        <v>1.7120000000000003E-2</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.6">
@@ -55394,7 +55394,7 @@
       </c>
       <c r="F90" s="33">
         <f t="shared" si="1"/>
-        <v>1.3849999999999999E-2</v>
+        <v>1.4659999999999999E-2</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -55412,7 +55412,7 @@
       </c>
       <c r="F91" s="33">
         <f t="shared" si="1"/>
-        <v>1.1599999999999999E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -55430,7 +55430,7 @@
       </c>
       <c r="F92" s="33">
         <f t="shared" si="1"/>
-        <v>7.1300000000000002E-2</v>
+        <v>7.3899999999999993E-2</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.6">
@@ -55448,7 +55448,7 @@
       </c>
       <c r="F93" s="33">
         <f t="shared" si="1"/>
-        <v>7.3540000000000008E-2</v>
+        <v>7.6229999999999992E-2</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.6">
@@ -55466,7 +55466,7 @@
       </c>
       <c r="F94" s="33">
         <f t="shared" si="1"/>
-        <v>7.5780000000000014E-2</v>
+        <v>7.8559999999999991E-2</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.6">
@@ -55484,7 +55484,7 @@
       </c>
       <c r="F95" s="33">
         <f t="shared" si="1"/>
-        <v>7.8019999999999992E-2</v>
+        <v>8.088999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.6">
@@ -55502,7 +55502,7 @@
       </c>
       <c r="F96" s="33">
         <f t="shared" si="1"/>
-        <v>8.0259999999999998E-2</v>
+        <v>8.3219999999999988E-2</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.6">
@@ -55520,7 +55520,7 @@
       </c>
       <c r="F97" s="33">
         <f t="shared" si="1"/>
-        <v>8.2500000000000004E-2</v>
+        <v>8.5549999999999987E-2</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.6">
@@ -55538,7 +55538,7 @@
       </c>
       <c r="F98" s="33">
         <f t="shared" si="1"/>
-        <v>8.474000000000001E-2</v>
+        <v>8.788E-2</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.6">
@@ -55556,7 +55556,7 @@
       </c>
       <c r="F99" s="33">
         <f t="shared" si="1"/>
-        <v>8.6980000000000002E-2</v>
+        <v>9.0209999999999985E-2</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.6">
@@ -55574,7 +55574,7 @@
       </c>
       <c r="F100" s="33">
         <f t="shared" si="1"/>
-        <v>8.9220000000000022E-2</v>
+        <v>9.2539999999999997E-2</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.6">
@@ -55592,7 +55592,7 @@
       </c>
       <c r="F101" s="33">
         <f t="shared" si="1"/>
-        <v>9.146E-2</v>
+        <v>9.4869999999999996E-2</v>
       </c>
     </row>
     <row r="102" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -55610,7 +55610,7 @@
       </c>
       <c r="F102" s="33">
         <f t="shared" si="1"/>
-        <v>9.3700000000000006E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="103" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -55628,7 +55628,7 @@
       </c>
       <c r="F103" s="33">
         <f t="shared" si="1"/>
-        <v>7.1300000000000002E-2</v>
+        <v>7.3899999999999993E-2</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.6">
@@ -55646,7 +55646,7 @@
       </c>
       <c r="F104" s="33">
         <f t="shared" si="1"/>
-        <v>6.7830000000000001E-2</v>
+        <v>7.0900000000000005E-2</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.6">
@@ -55664,7 +55664,7 @@
       </c>
       <c r="F105" s="33">
         <f t="shared" si="1"/>
-        <v>6.4360000000000001E-2</v>
+        <v>6.7900000000000002E-2</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.6">
@@ -55682,7 +55682,7 @@
       </c>
       <c r="F106" s="33">
         <f t="shared" si="1"/>
-        <v>6.089E-2</v>
+        <v>6.4899999999999985E-2</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.6">
@@ -55700,7 +55700,7 @@
       </c>
       <c r="F107" s="33">
         <f t="shared" si="1"/>
-        <v>5.7419999999999999E-2</v>
+        <v>6.1899999999999997E-2</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.6">
@@ -55718,7 +55718,7 @@
       </c>
       <c r="F108" s="33">
         <f t="shared" si="1"/>
-        <v>5.3949999999999998E-2</v>
+        <v>5.8899999999999994E-2</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.6">
@@ -55736,7 +55736,7 @@
       </c>
       <c r="F109" s="33">
         <f t="shared" si="1"/>
-        <v>5.0480000000000004E-2</v>
+        <v>5.5899999999999998E-2</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.6">
@@ -55754,7 +55754,7 @@
       </c>
       <c r="F110" s="33">
         <f t="shared" si="1"/>
-        <v>4.7009999999999996E-2</v>
+        <v>5.2900000000000003E-2</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.6">
@@ -55772,7 +55772,7 @@
       </c>
       <c r="F111" s="33">
         <f t="shared" si="1"/>
-        <v>4.3540000000000002E-2</v>
+        <v>4.9900000000000007E-2</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.6">
@@ -55790,7 +55790,7 @@
       </c>
       <c r="F112" s="33">
         <f t="shared" si="1"/>
-        <v>4.0070000000000008E-2</v>
+        <v>4.6900000000000004E-2</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -55808,7 +55808,7 @@
       </c>
       <c r="F113" s="33">
         <f t="shared" si="1"/>
-        <v>3.6600000000000001E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -55826,7 +55826,7 @@
       </c>
       <c r="F114" s="33">
         <f t="shared" si="1"/>
-        <v>7.1300000000000002E-2</v>
+        <v>7.3899999999999993E-2</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.6">
@@ -55844,7 +55844,7 @@
       </c>
       <c r="F115" s="33">
         <f t="shared" si="1"/>
-        <v>6.7729999999999999E-2</v>
+        <v>7.0429999999999993E-2</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.6">
@@ -55862,7 +55862,7 @@
       </c>
       <c r="F116" s="33">
         <f t="shared" si="1"/>
-        <v>6.4160000000000009E-2</v>
+        <v>6.6959999999999992E-2</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.6">
@@ -55880,7 +55880,7 @@
       </c>
       <c r="F117" s="33">
         <f t="shared" si="1"/>
-        <v>6.0589999999999998E-2</v>
+        <v>6.3489999999999991E-2</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.6">
@@ -55898,7 +55898,7 @@
       </c>
       <c r="F118" s="33">
         <f t="shared" si="1"/>
-        <v>5.7020000000000001E-2</v>
+        <v>6.0019999999999997E-2</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.6">
@@ -55916,7 +55916,7 @@
       </c>
       <c r="F119" s="33">
         <f t="shared" si="1"/>
-        <v>5.3449999999999998E-2</v>
+        <v>5.6549999999999996E-2</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.6">
@@ -55934,7 +55934,7 @@
       </c>
       <c r="F120" s="33">
         <f t="shared" si="1"/>
-        <v>4.9880000000000008E-2</v>
+        <v>5.3080000000000002E-2</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.6">
@@ -55952,7 +55952,7 @@
       </c>
       <c r="F121" s="33">
         <f t="shared" si="1"/>
-        <v>4.6309999999999997E-2</v>
+        <v>4.9609999999999994E-2</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.6">
@@ -55970,7 +55970,7 @@
       </c>
       <c r="F122" s="33">
         <f t="shared" si="1"/>
-        <v>4.274E-2</v>
+        <v>4.614E-2</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.6">
@@ -55988,7 +55988,7 @@
       </c>
       <c r="F123" s="33">
         <f t="shared" si="1"/>
-        <v>3.9169999999999996E-2</v>
+        <v>4.267E-2</v>
       </c>
     </row>
     <row r="124" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -56006,7 +56006,7 @@
       </c>
       <c r="F124" s="33">
         <f t="shared" si="1"/>
-        <v>3.56E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
     </row>
     <row r="125" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -56024,7 +56024,7 @@
       </c>
       <c r="F125" s="33">
         <f t="shared" si="1"/>
-        <v>7.1300000000000002E-2</v>
+        <v>7.3899999999999993E-2</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.6">
@@ -56042,7 +56042,7 @@
       </c>
       <c r="F126" s="33">
         <f t="shared" si="1"/>
-        <v>6.8890000000000007E-2</v>
+        <v>7.1599999999999997E-2</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.6">
@@ -56060,7 +56060,7 @@
       </c>
       <c r="F127" s="33">
         <f t="shared" si="1"/>
-        <v>6.6480000000000011E-2</v>
+        <v>6.93E-2</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.6">
@@ -56078,7 +56078,7 @@
       </c>
       <c r="F128" s="33">
         <f t="shared" si="1"/>
-        <v>6.4069999999999988E-2</v>
+        <v>6.699999999999999E-2</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.6">
@@ -56096,7 +56096,7 @@
       </c>
       <c r="F129" s="33">
         <f t="shared" si="1"/>
-        <v>6.166E-2</v>
+        <v>6.4700000000000008E-2</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.6">
@@ -56114,7 +56114,7 @@
       </c>
       <c r="F130" s="33">
         <f t="shared" si="1"/>
-        <v>5.9249999999999997E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.6">
@@ -56132,7 +56132,7 @@
       </c>
       <c r="F131" s="33">
         <f t="shared" si="1"/>
-        <v>5.6840000000000002E-2</v>
+        <v>6.0100000000000001E-2</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.6">
@@ -56150,7 +56150,7 @@
       </c>
       <c r="F132" s="33">
         <f t="shared" si="1"/>
-        <v>5.4429999999999999E-2</v>
+        <v>5.779999999999999E-2</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.6">
@@ -56168,7 +56168,7 @@
       </c>
       <c r="F133" s="33">
         <f t="shared" si="1"/>
-        <v>5.2020000000000004E-2</v>
+        <v>5.5500000000000008E-2</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.6">
@@ -56186,7 +56186,7 @@
       </c>
       <c r="F134" s="33">
         <f t="shared" si="1"/>
-        <v>4.9610000000000001E-2</v>
+        <v>5.3200000000000004E-2</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -56204,7 +56204,7 @@
       </c>
       <c r="F135" s="33">
         <f t="shared" si="1"/>
-        <v>4.7199999999999999E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="136" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -56222,7 +56222,7 @@
       </c>
       <c r="F136" s="33">
         <f t="shared" si="1"/>
-        <v>7.1300000000000002E-2</v>
+        <v>7.3899999999999993E-2</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.6">
@@ -56240,7 +56240,7 @@
       </c>
       <c r="F137" s="33">
         <f t="shared" si="1"/>
-        <v>6.4750000000000002E-2</v>
+        <v>6.7070000000000005E-2</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.6">
@@ -56258,7 +56258,7 @@
       </c>
       <c r="F138" s="33">
         <f t="shared" si="1"/>
-        <v>5.8200000000000009E-2</v>
+        <v>6.0240000000000002E-2</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.6">
@@ -56276,7 +56276,7 @@
       </c>
       <c r="F139" s="33">
         <f t="shared" si="1"/>
-        <v>5.1649999999999995E-2</v>
+        <v>5.3409999999999992E-2</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.6">
@@ -56294,7 +56294,7 @@
       </c>
       <c r="F140" s="33">
         <f t="shared" si="1"/>
-        <v>4.5100000000000001E-2</v>
+        <v>4.6579999999999996E-2</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.6">
@@ -56312,7 +56312,7 @@
       </c>
       <c r="F141" s="33">
         <f t="shared" si="1"/>
-        <v>3.8550000000000001E-2</v>
+        <v>3.9749999999999994E-2</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.6">
@@ -56330,7 +56330,7 @@
       </c>
       <c r="F142" s="33">
         <f t="shared" si="1"/>
-        <v>3.2000000000000001E-2</v>
+        <v>3.2919999999999998E-2</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.6">
@@ -56348,7 +56348,7 @@
       </c>
       <c r="F143" s="33">
         <f t="shared" si="1"/>
-        <v>2.545E-2</v>
+        <v>2.6089999999999999E-2</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.6">
@@ -56366,7 +56366,7 @@
       </c>
       <c r="F144" s="33">
         <f t="shared" ref="F144:F207" si="2">D144 * VLOOKUP(B144, $C$4:$D$11, 2, FALSE) + E144 * VLOOKUP(C144, $C$4:$D$11, 2, FALSE)</f>
-        <v>1.89E-2</v>
+        <v>1.9259999999999999E-2</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.6">
@@ -56384,7 +56384,7 @@
       </c>
       <c r="F145" s="33">
         <f t="shared" si="2"/>
-        <v>1.235E-2</v>
+        <v>1.243E-2</v>
       </c>
     </row>
     <row r="146" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -56402,7 +56402,7 @@
       </c>
       <c r="F146" s="33">
         <f t="shared" si="2"/>
-        <v>5.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="147" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -56420,7 +56420,7 @@
       </c>
       <c r="F147" s="33">
         <f t="shared" si="2"/>
-        <v>7.1300000000000002E-2</v>
+        <v>7.3899999999999993E-2</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.6">
@@ -56438,7 +56438,7 @@
       </c>
       <c r="F148" s="33">
         <f t="shared" si="2"/>
-        <v>6.5329999999999999E-2</v>
+        <v>6.7729999999999999E-2</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.6">
@@ -56456,7 +56456,7 @@
       </c>
       <c r="F149" s="33">
         <f t="shared" si="2"/>
-        <v>5.936000000000001E-2</v>
+        <v>6.1559999999999997E-2</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.6">
@@ -56474,7 +56474,7 @@
       </c>
       <c r="F150" s="33">
         <f t="shared" si="2"/>
-        <v>5.3389999999999993E-2</v>
+        <v>5.5389999999999995E-2</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.6">
@@ -56492,7 +56492,7 @@
       </c>
       <c r="F151" s="33">
         <f t="shared" si="2"/>
-        <v>4.7419999999999997E-2</v>
+        <v>4.922E-2</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.6">
@@ -56510,7 +56510,7 @@
       </c>
       <c r="F152" s="33">
         <f t="shared" si="2"/>
-        <v>4.1450000000000001E-2</v>
+        <v>4.3049999999999998E-2</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.6">
@@ -56528,7 +56528,7 @@
       </c>
       <c r="F153" s="33">
         <f t="shared" si="2"/>
-        <v>3.5480000000000005E-2</v>
+        <v>3.6879999999999996E-2</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.6">
@@ -56546,7 +56546,7 @@
       </c>
       <c r="F154" s="33">
         <f t="shared" si="2"/>
-        <v>2.9509999999999998E-2</v>
+        <v>3.0710000000000001E-2</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.6">
@@ -56564,7 +56564,7 @@
       </c>
       <c r="F155" s="33">
         <f t="shared" si="2"/>
-        <v>2.3540000000000002E-2</v>
+        <v>2.4539999999999999E-2</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.6">
@@ -56582,7 +56582,7 @@
       </c>
       <c r="F156" s="33">
         <f t="shared" si="2"/>
-        <v>1.7570000000000002E-2</v>
+        <v>1.8370000000000001E-2</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -56600,7 +56600,7 @@
       </c>
       <c r="F157" s="33">
         <f t="shared" si="2"/>
-        <v>1.1599999999999999E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
     </row>
     <row r="158" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -56618,7 +56618,7 @@
       </c>
       <c r="F158" s="33">
         <f t="shared" si="2"/>
-        <v>9.3700000000000006E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.6">
@@ -56636,7 +56636,7 @@
       </c>
       <c r="F159" s="33">
         <f t="shared" si="2"/>
-        <v>8.7989999999999999E-2</v>
+        <v>9.1870000000000007E-2</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.6">
@@ -56654,7 +56654,7 @@
       </c>
       <c r="F160" s="33">
         <f t="shared" si="2"/>
-        <v>8.228000000000002E-2</v>
+        <v>8.6539999999999992E-2</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.6">
@@ -56672,7 +56672,7 @@
       </c>
       <c r="F161" s="33">
         <f t="shared" si="2"/>
-        <v>7.6569999999999999E-2</v>
+        <v>8.1209999999999991E-2</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.6">
@@ -56690,7 +56690,7 @@
       </c>
       <c r="F162" s="33">
         <f t="shared" si="2"/>
-        <v>7.0860000000000006E-2</v>
+        <v>7.5880000000000003E-2</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.6">
@@ -56708,7 +56708,7 @@
       </c>
       <c r="F163" s="33">
         <f t="shared" si="2"/>
-        <v>6.515E-2</v>
+        <v>7.0550000000000002E-2</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.6">
@@ -56726,7 +56726,7 @@
       </c>
       <c r="F164" s="33">
         <f t="shared" si="2"/>
-        <v>5.9440000000000007E-2</v>
+        <v>6.522E-2</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.6">
@@ -56744,7 +56744,7 @@
       </c>
       <c r="F165" s="33">
         <f t="shared" si="2"/>
-        <v>5.373E-2</v>
+        <v>5.9889999999999999E-2</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.6">
@@ -56762,7 +56762,7 @@
       </c>
       <c r="F166" s="33">
         <f t="shared" si="2"/>
-        <v>4.8020000000000007E-2</v>
+        <v>5.4560000000000004E-2</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.6">
@@ -56780,7 +56780,7 @@
       </c>
       <c r="F167" s="33">
         <f t="shared" si="2"/>
-        <v>4.2310000000000007E-2</v>
+        <v>4.9230000000000003E-2</v>
       </c>
     </row>
     <row r="168" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -56798,7 +56798,7 @@
       </c>
       <c r="F168" s="33">
         <f t="shared" si="2"/>
-        <v>3.6600000000000001E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="169" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -56816,7 +56816,7 @@
       </c>
       <c r="F169" s="33">
         <f t="shared" si="2"/>
-        <v>9.3700000000000006E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.6">
@@ -56834,7 +56834,7 @@
       </c>
       <c r="F170" s="33">
         <f t="shared" si="2"/>
-        <v>8.7889999999999996E-2</v>
+        <v>9.1400000000000009E-2</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.6">
@@ -56852,7 +56852,7 @@
       </c>
       <c r="F171" s="33">
         <f t="shared" si="2"/>
-        <v>8.2080000000000014E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.6">
@@ -56870,7 +56870,7 @@
       </c>
       <c r="F172" s="33">
         <f t="shared" si="2"/>
-        <v>7.6269999999999991E-2</v>
+        <v>7.9799999999999982E-2</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.6">
@@ -56888,7 +56888,7 @@
       </c>
       <c r="F173" s="33">
         <f t="shared" si="2"/>
-        <v>7.0459999999999995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.6">
@@ -56906,7 +56906,7 @@
       </c>
       <c r="F174" s="33">
         <f t="shared" si="2"/>
-        <v>6.4649999999999999E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.6">
@@ -56924,7 +56924,7 @@
       </c>
       <c r="F175" s="33">
         <f t="shared" si="2"/>
-        <v>5.8840000000000003E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.6">
@@ -56942,7 +56942,7 @@
       </c>
       <c r="F176" s="33">
         <f t="shared" si="2"/>
-        <v>5.3029999999999994E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.6">
@@ -56960,7 +56960,7 @@
       </c>
       <c r="F177" s="33">
         <f t="shared" si="2"/>
-        <v>4.7220000000000005E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.6">
@@ -56978,7 +56978,7 @@
       </c>
       <c r="F178" s="33">
         <f t="shared" si="2"/>
-        <v>4.1410000000000002E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="179" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -56996,7 +56996,7 @@
       </c>
       <c r="F179" s="33">
         <f t="shared" si="2"/>
-        <v>3.56E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
     </row>
     <row r="180" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -57014,7 +57014,7 @@
       </c>
       <c r="F180" s="33">
         <f t="shared" si="2"/>
-        <v>9.3700000000000006E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.6">
@@ -57032,7 +57032,7 @@
       </c>
       <c r="F181" s="33">
         <f t="shared" si="2"/>
-        <v>8.9050000000000004E-2</v>
+        <v>9.257E-2</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.6">
@@ -57050,7 +57050,7 @@
       </c>
       <c r="F182" s="33">
         <f t="shared" si="2"/>
-        <v>8.4400000000000017E-2</v>
+        <v>8.793999999999999E-2</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.6">
@@ -57068,7 +57068,7 @@
       </c>
       <c r="F183" s="33">
         <f t="shared" si="2"/>
-        <v>7.9749999999999988E-2</v>
+        <v>8.3309999999999995E-2</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.6">
@@ -57086,7 +57086,7 @@
       </c>
       <c r="F184" s="33">
         <f t="shared" si="2"/>
-        <v>7.51E-2</v>
+        <v>7.868E-2</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.6">
@@ -57104,7 +57104,7 @@
       </c>
       <c r="F185" s="33">
         <f t="shared" si="2"/>
-        <v>7.0449999999999999E-2</v>
+        <v>7.4050000000000005E-2</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.6">
@@ -57122,7 +57122,7 @@
       </c>
       <c r="F186" s="33">
         <f t="shared" si="2"/>
-        <v>6.5799999999999997E-2</v>
+        <v>6.9419999999999996E-2</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.6">
@@ -57140,7 +57140,7 @@
       </c>
       <c r="F187" s="33">
         <f t="shared" si="2"/>
-        <v>6.1149999999999996E-2</v>
+        <v>6.4789999999999986E-2</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.6">
@@ -57158,7 +57158,7 @@
       </c>
       <c r="F188" s="33">
         <f t="shared" si="2"/>
-        <v>5.6500000000000009E-2</v>
+        <v>6.0160000000000005E-2</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.6">
@@ -57176,7 +57176,7 @@
       </c>
       <c r="F189" s="33">
         <f t="shared" si="2"/>
-        <v>5.185E-2</v>
+        <v>5.5530000000000003E-2</v>
       </c>
     </row>
     <row r="190" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -57194,7 +57194,7 @@
       </c>
       <c r="F190" s="33">
         <f t="shared" si="2"/>
-        <v>4.7199999999999999E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="191" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -57212,7 +57212,7 @@
       </c>
       <c r="F191" s="33">
         <f t="shared" si="2"/>
-        <v>9.3700000000000006E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.6">
@@ -57230,7 +57230,7 @@
       </c>
       <c r="F192" s="33">
         <f t="shared" si="2"/>
-        <v>8.4909999999999999E-2</v>
+        <v>8.8040000000000007E-2</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.6">
@@ -57248,7 +57248,7 @@
       </c>
       <c r="F193" s="33">
         <f t="shared" si="2"/>
-        <v>7.6120000000000007E-2</v>
+        <v>7.8879999999999992E-2</v>
       </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.6">
@@ -57266,7 +57266,7 @@
       </c>
       <c r="F194" s="33">
         <f t="shared" si="2"/>
-        <v>6.7330000000000001E-2</v>
+        <v>6.971999999999999E-2</v>
       </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.6">
@@ -57284,7 +57284,7 @@
       </c>
       <c r="F195" s="33">
         <f t="shared" si="2"/>
-        <v>5.8540000000000002E-2</v>
+        <v>6.0559999999999996E-2</v>
       </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.6">
@@ -57302,7 +57302,7 @@
       </c>
       <c r="F196" s="33">
         <f t="shared" si="2"/>
-        <v>4.9750000000000003E-2</v>
+        <v>5.1399999999999994E-2</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.6">
@@ -57320,7 +57320,7 @@
       </c>
       <c r="F197" s="33">
         <f t="shared" si="2"/>
-        <v>4.0960000000000003E-2</v>
+        <v>4.224E-2</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.6">
@@ -57338,7 +57338,7 @@
       </c>
       <c r="F198" s="33">
         <f t="shared" si="2"/>
-        <v>3.2169999999999997E-2</v>
+        <v>3.3079999999999998E-2</v>
       </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.6">
@@ -57356,7 +57356,7 @@
       </c>
       <c r="F199" s="33">
         <f t="shared" si="2"/>
-        <v>2.3380000000000005E-2</v>
+        <v>2.392E-2</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.6">
@@ -57374,7 +57374,7 @@
       </c>
       <c r="F200" s="33">
         <f t="shared" si="2"/>
-        <v>1.4590000000000002E-2</v>
+        <v>1.4759999999999999E-2</v>
       </c>
     </row>
     <row r="201" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -57392,7 +57392,7 @@
       </c>
       <c r="F201" s="33">
         <f t="shared" si="2"/>
-        <v>5.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="202" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -57410,7 +57410,7 @@
       </c>
       <c r="F202" s="33">
         <f t="shared" si="2"/>
-        <v>9.3700000000000006E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.6">
@@ -57428,7 +57428,7 @@
       </c>
       <c r="F203" s="33">
         <f t="shared" si="2"/>
-        <v>8.5489999999999997E-2</v>
+        <v>8.8700000000000001E-2</v>
       </c>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.6">
@@ -57446,7 +57446,7 @@
       </c>
       <c r="F204" s="33">
         <f t="shared" si="2"/>
-        <v>7.7280000000000015E-2</v>
+        <v>8.0199999999999994E-2</v>
       </c>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.6">
@@ -57464,7 +57464,7 @@
       </c>
       <c r="F205" s="33">
         <f t="shared" si="2"/>
-        <v>6.9069999999999993E-2</v>
+        <v>7.1699999999999986E-2</v>
       </c>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.6">
@@ -57482,7 +57482,7 @@
       </c>
       <c r="F206" s="33">
         <f t="shared" si="2"/>
-        <v>6.0859999999999997E-2</v>
+        <v>6.3199999999999992E-2</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.6">
@@ -57500,7 +57500,7 @@
       </c>
       <c r="F207" s="33">
         <f t="shared" si="2"/>
-        <v>5.2650000000000002E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.6">
@@ -57518,7 +57518,7 @@
       </c>
       <c r="F208" s="33">
         <f t="shared" ref="F208:F271" si="3">D208 * VLOOKUP(B208, $C$4:$D$11, 2, FALSE) + E208 * VLOOKUP(C208, $C$4:$D$11, 2, FALSE)</f>
-        <v>4.4440000000000007E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.6">
@@ -57536,7 +57536,7 @@
       </c>
       <c r="F209" s="33">
         <f t="shared" si="3"/>
-        <v>3.6229999999999998E-2</v>
+        <v>3.7699999999999997E-2</v>
       </c>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.6">
@@ -57554,7 +57554,7 @@
       </c>
       <c r="F210" s="33">
         <f t="shared" si="3"/>
-        <v>2.8020000000000003E-2</v>
+        <v>2.92E-2</v>
       </c>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.6">
@@ -57572,7 +57572,7 @@
       </c>
       <c r="F211" s="33">
         <f t="shared" si="3"/>
-        <v>1.9810000000000001E-2</v>
+        <v>2.07E-2</v>
       </c>
     </row>
     <row r="212" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -57590,7 +57590,7 @@
       </c>
       <c r="F212" s="33">
         <f t="shared" si="3"/>
-        <v>1.1599999999999999E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
     </row>
     <row r="213" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -57608,7 +57608,7 @@
       </c>
       <c r="F213" s="33">
         <f t="shared" si="3"/>
-        <v>3.6600000000000001E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.6">
@@ -57626,7 +57626,7 @@
       </c>
       <c r="F214" s="33">
         <f t="shared" si="3"/>
-        <v>3.6500000000000005E-2</v>
+        <v>4.3430000000000003E-2</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.6">
@@ -57644,7 +57644,7 @@
       </c>
       <c r="F215" s="33">
         <f t="shared" si="3"/>
-        <v>3.6400000000000002E-2</v>
+        <v>4.2960000000000005E-2</v>
       </c>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.6">
@@ -57662,7 +57662,7 @@
       </c>
       <c r="F216" s="33">
         <f t="shared" si="3"/>
-        <v>3.6299999999999999E-2</v>
+        <v>4.249E-2</v>
       </c>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.6">
@@ -57680,7 +57680,7 @@
       </c>
       <c r="F217" s="33">
         <f t="shared" si="3"/>
-        <v>3.6200000000000003E-2</v>
+        <v>4.2020000000000002E-2</v>
       </c>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.6">
@@ -57698,7 +57698,7 @@
       </c>
       <c r="F218" s="33">
         <f t="shared" si="3"/>
-        <v>3.61E-2</v>
+        <v>4.1550000000000004E-2</v>
       </c>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.6">
@@ -57716,7 +57716,7 @@
       </c>
       <c r="F219" s="33">
         <f t="shared" si="3"/>
-        <v>3.6000000000000004E-2</v>
+        <v>4.1080000000000005E-2</v>
       </c>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.6">
@@ -57734,7 +57734,7 @@
       </c>
       <c r="F220" s="33">
         <f t="shared" si="3"/>
-        <v>3.5900000000000001E-2</v>
+        <v>4.0609999999999993E-2</v>
       </c>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.6">
@@ -57752,7 +57752,7 @@
       </c>
       <c r="F221" s="33">
         <f t="shared" si="3"/>
-        <v>3.5799999999999998E-2</v>
+        <v>4.0140000000000002E-2</v>
       </c>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.6">
@@ -57770,7 +57770,7 @@
       </c>
       <c r="F222" s="33">
         <f t="shared" si="3"/>
-        <v>3.5699999999999996E-2</v>
+        <v>3.9669999999999997E-2</v>
       </c>
     </row>
     <row r="223" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -57788,7 +57788,7 @@
       </c>
       <c r="F223" s="33">
         <f t="shared" si="3"/>
-        <v>3.56E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
     </row>
     <row r="224" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -57806,7 +57806,7 @@
       </c>
       <c r="F224" s="33">
         <f t="shared" si="3"/>
-        <v>3.6600000000000001E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.6">
@@ -57824,7 +57824,7 @@
       </c>
       <c r="F225" s="33">
         <f t="shared" si="3"/>
-        <v>3.7660000000000006E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.6">
@@ -57842,7 +57842,7 @@
       </c>
       <c r="F226" s="33">
         <f t="shared" si="3"/>
-        <v>3.8720000000000004E-2</v>
+        <v>4.5300000000000007E-2</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.6">
@@ -57860,7 +57860,7 @@
       </c>
       <c r="F227" s="33">
         <f t="shared" si="3"/>
-        <v>3.9779999999999996E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.6">
@@ -57878,7 +57878,7 @@
       </c>
       <c r="F228" s="33">
         <f t="shared" si="3"/>
-        <v>4.0840000000000001E-2</v>
+        <v>4.6700000000000005E-2</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.6">
@@ -57896,7 +57896,7 @@
       </c>
       <c r="F229" s="33">
         <f t="shared" si="3"/>
-        <v>4.19E-2</v>
+        <v>4.7399999999999998E-2</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.6">
@@ -57914,7 +57914,7 @@
       </c>
       <c r="F230" s="33">
         <f t="shared" si="3"/>
-        <v>4.2959999999999998E-2</v>
+        <v>4.8100000000000004E-2</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.6">
@@ -57932,7 +57932,7 @@
       </c>
       <c r="F231" s="33">
         <f t="shared" si="3"/>
-        <v>4.4020000000000004E-2</v>
+        <v>4.8799999999999996E-2</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.6">
@@ -57950,7 +57950,7 @@
       </c>
       <c r="F232" s="33">
         <f t="shared" si="3"/>
-        <v>4.5080000000000002E-2</v>
+        <v>4.9500000000000009E-2</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.6">
@@ -57968,7 +57968,7 @@
       </c>
       <c r="F233" s="33">
         <f t="shared" si="3"/>
-        <v>4.614E-2</v>
+        <v>5.0200000000000002E-2</v>
       </c>
     </row>
     <row r="234" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -57986,7 +57986,7 @@
       </c>
       <c r="F234" s="33">
         <f t="shared" si="3"/>
-        <v>4.7199999999999999E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="235" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -58004,7 +58004,7 @@
       </c>
       <c r="F235" s="33">
         <f t="shared" si="3"/>
-        <v>3.6600000000000001E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.6">
@@ -58022,7 +58022,7 @@
       </c>
       <c r="F236" s="33">
         <f t="shared" si="3"/>
-        <v>3.3520000000000001E-2</v>
+        <v>4.0070000000000001E-2</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.6">
@@ -58040,7 +58040,7 @@
       </c>
       <c r="F237" s="33">
         <f t="shared" si="3"/>
-        <v>3.0440000000000002E-2</v>
+        <v>3.6240000000000008E-2</v>
       </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.6">
@@ -58058,7 +58058,7 @@
       </c>
       <c r="F238" s="33">
         <f t="shared" si="3"/>
-        <v>2.7359999999999999E-2</v>
+        <v>3.2410000000000001E-2</v>
       </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.6">
@@ -58076,7 +58076,7 @@
       </c>
       <c r="F239" s="33">
         <f t="shared" si="3"/>
-        <v>2.4279999999999999E-2</v>
+        <v>2.8579999999999998E-2</v>
       </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.6">
@@ -58094,7 +58094,7 @@
       </c>
       <c r="F240" s="33">
         <f t="shared" si="3"/>
-        <v>2.12E-2</v>
+        <v>2.4750000000000001E-2</v>
       </c>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.6">
@@ -58112,7 +58112,7 @@
       </c>
       <c r="F241" s="33">
         <f t="shared" si="3"/>
-        <v>1.8120000000000001E-2</v>
+        <v>2.0920000000000001E-2</v>
       </c>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.6">
@@ -58130,7 +58130,7 @@
       </c>
       <c r="F242" s="33">
         <f t="shared" si="3"/>
-        <v>1.504E-2</v>
+        <v>1.7090000000000001E-2</v>
       </c>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.6">
@@ -58148,7 +58148,7 @@
       </c>
       <c r="F243" s="33">
         <f t="shared" si="3"/>
-        <v>1.196E-2</v>
+        <v>1.3260000000000001E-2</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.6">
@@ -58166,7 +58166,7 @@
       </c>
       <c r="F244" s="33">
         <f t="shared" si="3"/>
-        <v>8.879999999999999E-3</v>
+        <v>9.4300000000000009E-3</v>
       </c>
     </row>
     <row r="245" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -58184,7 +58184,7 @@
       </c>
       <c r="F245" s="33">
         <f t="shared" si="3"/>
-        <v>5.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="246" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -58202,7 +58202,7 @@
       </c>
       <c r="F246" s="33">
         <f t="shared" si="3"/>
-        <v>3.6600000000000001E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.6">
@@ -58220,7 +58220,7 @@
       </c>
       <c r="F247" s="33">
         <f t="shared" si="3"/>
-        <v>3.4100000000000005E-2</v>
+        <v>4.0730000000000002E-2</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.6">
@@ -58238,7 +58238,7 @@
       </c>
       <c r="F248" s="33">
         <f t="shared" si="3"/>
-        <v>3.1600000000000003E-2</v>
+        <v>3.7560000000000003E-2</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.6">
@@ -58256,7 +58256,7 @@
       </c>
       <c r="F249" s="33">
         <f t="shared" si="3"/>
-        <v>2.9100000000000001E-2</v>
+        <v>3.4390000000000004E-2</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.6">
@@ -58274,7 +58274,7 @@
       </c>
       <c r="F250" s="33">
         <f t="shared" si="3"/>
-        <v>2.6599999999999999E-2</v>
+        <v>3.1219999999999998E-2</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.6">
@@ -58292,7 +58292,7 @@
       </c>
       <c r="F251" s="33">
         <f t="shared" si="3"/>
-        <v>2.41E-2</v>
+        <v>2.8050000000000002E-2</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.6">
@@ -58310,7 +58310,7 @@
       </c>
       <c r="F252" s="33">
         <f t="shared" si="3"/>
-        <v>2.1600000000000001E-2</v>
+        <v>2.4880000000000003E-2</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.6">
@@ -58328,7 +58328,7 @@
       </c>
       <c r="F253" s="33">
         <f t="shared" si="3"/>
-        <v>1.9099999999999999E-2</v>
+        <v>2.171E-2</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.6">
@@ -58346,7 +58346,7 @@
       </c>
       <c r="F254" s="33">
         <f t="shared" si="3"/>
-        <v>1.66E-2</v>
+        <v>1.8540000000000001E-2</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.6">
@@ -58364,7 +58364,7 @@
       </c>
       <c r="F255" s="33">
         <f t="shared" si="3"/>
-        <v>1.41E-2</v>
+        <v>1.5370000000000002E-2</v>
       </c>
     </row>
     <row r="256" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -58382,7 +58382,7 @@
       </c>
       <c r="F256" s="33">
         <f t="shared" si="3"/>
-        <v>1.1599999999999999E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
     </row>
     <row r="257" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -58400,7 +58400,7 @@
       </c>
       <c r="F257" s="33">
         <f t="shared" si="3"/>
-        <v>3.56E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.6">
@@ -58418,7 +58418,7 @@
       </c>
       <c r="F258" s="33">
         <f t="shared" si="3"/>
-        <v>3.6760000000000001E-2</v>
+        <v>4.0370000000000003E-2</v>
       </c>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.6">
@@ -58436,7 +58436,7 @@
       </c>
       <c r="F259" s="33">
         <f t="shared" si="3"/>
-        <v>3.7920000000000002E-2</v>
+        <v>4.1540000000000001E-2</v>
       </c>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.6">
@@ -58454,7 +58454,7 @@
       </c>
       <c r="F260" s="33">
         <f t="shared" si="3"/>
-        <v>3.9079999999999997E-2</v>
+        <v>4.2709999999999998E-2</v>
       </c>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.6">
@@ -58472,7 +58472,7 @@
       </c>
       <c r="F261" s="33">
         <f t="shared" si="3"/>
-        <v>4.0239999999999998E-2</v>
+        <v>4.3880000000000002E-2</v>
       </c>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.6">
@@ -58490,7 +58490,7 @@
       </c>
       <c r="F262" s="33">
         <f t="shared" si="3"/>
-        <v>4.1399999999999999E-2</v>
+        <v>4.505E-2</v>
       </c>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.6">
@@ -58508,7 +58508,7 @@
       </c>
       <c r="F263" s="33">
         <f t="shared" si="3"/>
-        <v>4.2560000000000001E-2</v>
+        <v>4.6219999999999997E-2</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.6">
@@ -58526,7 +58526,7 @@
       </c>
       <c r="F264" s="33">
         <f t="shared" si="3"/>
-        <v>4.3720000000000002E-2</v>
+        <v>4.7389999999999995E-2</v>
       </c>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.6">
@@ -58544,7 +58544,7 @@
       </c>
       <c r="F265" s="33">
         <f t="shared" si="3"/>
-        <v>4.4880000000000003E-2</v>
+        <v>4.8560000000000006E-2</v>
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.6">
@@ -58562,7 +58562,7 @@
       </c>
       <c r="F266" s="33">
         <f t="shared" si="3"/>
-        <v>4.6039999999999998E-2</v>
+        <v>4.9730000000000003E-2</v>
       </c>
     </row>
     <row r="267" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -58580,7 +58580,7 @@
       </c>
       <c r="F267" s="33">
         <f t="shared" si="3"/>
-        <v>4.7199999999999999E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="268" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -58598,7 +58598,7 @@
       </c>
       <c r="F268" s="33">
         <f t="shared" si="3"/>
-        <v>3.56E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.6">
@@ -58616,7 +58616,7 @@
       </c>
       <c r="F269" s="33">
         <f t="shared" si="3"/>
-        <v>3.2619999999999996E-2</v>
+        <v>3.5839999999999997E-2</v>
       </c>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.6">
@@ -58634,7 +58634,7 @@
       </c>
       <c r="F270" s="33">
         <f t="shared" si="3"/>
-        <v>2.9640000000000003E-2</v>
+        <v>3.2480000000000002E-2</v>
       </c>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.6">
@@ -58652,7 +58652,7 @@
       </c>
       <c r="F271" s="33">
         <f t="shared" si="3"/>
-        <v>2.6659999999999996E-2</v>
+        <v>2.9119999999999997E-2</v>
       </c>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.6">
@@ -58670,7 +58670,7 @@
       </c>
       <c r="F272" s="33">
         <f t="shared" ref="F272:F322" si="4">D272 * VLOOKUP(B272, $C$4:$D$11, 2, FALSE) + E272 * VLOOKUP(C272, $C$4:$D$11, 2, FALSE)</f>
-        <v>2.368E-2</v>
+        <v>2.5759999999999998E-2</v>
       </c>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.6">
@@ -58688,7 +58688,7 @@
       </c>
       <c r="F273" s="33">
         <f t="shared" si="4"/>
-        <v>2.07E-2</v>
+        <v>2.24E-2</v>
       </c>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.6">
@@ -58706,7 +58706,7 @@
       </c>
       <c r="F274" s="33">
         <f t="shared" si="4"/>
-        <v>1.772E-2</v>
+        <v>1.9039999999999998E-2</v>
       </c>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.6">
@@ -58724,7 +58724,7 @@
       </c>
       <c r="F275" s="33">
         <f t="shared" si="4"/>
-        <v>1.474E-2</v>
+        <v>1.5679999999999999E-2</v>
       </c>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.6">
@@ -58742,7 +58742,7 @@
       </c>
       <c r="F276" s="33">
         <f t="shared" si="4"/>
-        <v>1.176E-2</v>
+        <v>1.2320000000000001E-2</v>
       </c>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.6">
@@ -58760,7 +58760,7 @@
       </c>
       <c r="F277" s="33">
         <f t="shared" si="4"/>
-        <v>8.7799999999999996E-3</v>
+        <v>8.9599999999999992E-3</v>
       </c>
     </row>
     <row r="278" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -58778,7 +58778,7 @@
       </c>
       <c r="F278" s="33">
         <f t="shared" si="4"/>
-        <v>5.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="279" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -58796,7 +58796,7 @@
       </c>
       <c r="F279" s="33">
         <f t="shared" si="4"/>
-        <v>3.56E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.6">
@@ -58814,7 +58814,7 @@
       </c>
       <c r="F280" s="33">
         <f t="shared" si="4"/>
-        <v>3.32E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.6">
@@ -58832,7 +58832,7 @@
       </c>
       <c r="F281" s="33">
         <f t="shared" si="4"/>
-        <v>3.0800000000000001E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.6">
@@ -58850,7 +58850,7 @@
       </c>
       <c r="F282" s="33">
         <f t="shared" si="4"/>
-        <v>2.8399999999999998E-2</v>
+        <v>3.1099999999999996E-2</v>
       </c>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.6">
@@ -58868,7 +58868,7 @@
       </c>
       <c r="F283" s="33">
         <f t="shared" si="4"/>
-        <v>2.6000000000000002E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.6">
@@ -58886,7 +58886,7 @@
       </c>
       <c r="F284" s="33">
         <f t="shared" si="4"/>
-        <v>2.3599999999999999E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.6">
@@ -58904,7 +58904,7 @@
       </c>
       <c r="F285" s="33">
         <f t="shared" si="4"/>
-        <v>2.12E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.6">
@@ -58922,7 +58922,7 @@
       </c>
       <c r="F286" s="33">
         <f t="shared" si="4"/>
-        <v>1.8799999999999997E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.6">
@@ -58940,7 +58940,7 @@
       </c>
       <c r="F287" s="33">
         <f t="shared" si="4"/>
-        <v>1.6400000000000001E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.6">
@@ -58958,7 +58958,7 @@
       </c>
       <c r="F288" s="33">
         <f t="shared" si="4"/>
-        <v>1.4E-2</v>
+        <v>1.49E-2</v>
       </c>
     </row>
     <row r="289" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -58976,7 +58976,7 @@
       </c>
       <c r="F289" s="33">
         <f t="shared" si="4"/>
-        <v>1.1599999999999999E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
     </row>
     <row r="290" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -58994,7 +58994,7 @@
       </c>
       <c r="F290" s="33">
         <f t="shared" si="4"/>
-        <v>4.7199999999999999E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.6">
@@ -59012,7 +59012,7 @@
       </c>
       <c r="F291" s="33">
         <f t="shared" si="4"/>
-        <v>4.3059999999999994E-2</v>
+        <v>4.6370000000000001E-2</v>
       </c>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.6">
@@ -59030,7 +59030,7 @@
       </c>
       <c r="F292" s="33">
         <f t="shared" si="4"/>
-        <v>3.8920000000000003E-2</v>
+        <v>4.1840000000000009E-2</v>
       </c>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.6">
@@ -59048,7 +59048,7 @@
       </c>
       <c r="F293" s="33">
         <f t="shared" si="4"/>
-        <v>3.4779999999999998E-2</v>
+        <v>3.7309999999999996E-2</v>
       </c>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.6">
@@ -59066,7 +59066,7 @@
       </c>
       <c r="F294" s="33">
         <f t="shared" si="4"/>
-        <v>3.0639999999999997E-2</v>
+        <v>3.2779999999999997E-2</v>
       </c>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.6">
@@ -59084,7 +59084,7 @@
       </c>
       <c r="F295" s="33">
         <f t="shared" si="4"/>
-        <v>2.6499999999999999E-2</v>
+        <v>2.8250000000000001E-2</v>
       </c>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.6">
@@ -59102,7 +59102,7 @@
       </c>
       <c r="F296" s="33">
         <f t="shared" si="4"/>
-        <v>2.2360000000000001E-2</v>
+        <v>2.3720000000000001E-2</v>
       </c>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.6">
@@ -59120,7 +59120,7 @@
       </c>
       <c r="F297" s="33">
         <f t="shared" si="4"/>
-        <v>1.822E-2</v>
+        <v>1.9189999999999999E-2</v>
       </c>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.6">
@@ -59138,7 +59138,7 @@
       </c>
       <c r="F298" s="33">
         <f t="shared" si="4"/>
-        <v>1.4080000000000001E-2</v>
+        <v>1.4660000000000003E-2</v>
       </c>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.6">
@@ -59156,7 +59156,7 @@
       </c>
       <c r="F299" s="33">
         <f t="shared" si="4"/>
-        <v>9.9400000000000009E-3</v>
+        <v>1.013E-2</v>
       </c>
     </row>
     <row r="300" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -59174,7 +59174,7 @@
       </c>
       <c r="F300" s="33">
         <f t="shared" si="4"/>
-        <v>5.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="301" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -59192,7 +59192,7 @@
       </c>
       <c r="F301" s="33">
         <f t="shared" si="4"/>
-        <v>4.7199999999999999E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.6">
@@ -59210,7 +59210,7 @@
       </c>
       <c r="F302" s="33">
         <f t="shared" si="4"/>
-        <v>4.3639999999999998E-2</v>
+        <v>4.7030000000000002E-2</v>
       </c>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.6">
@@ -59228,7 +59228,7 @@
       </c>
       <c r="F303" s="33">
         <f t="shared" si="4"/>
-        <v>4.0080000000000005E-2</v>
+        <v>4.3160000000000004E-2</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.6">
@@ -59246,7 +59246,7 @@
       </c>
       <c r="F304" s="33">
         <f t="shared" si="4"/>
-        <v>3.6519999999999997E-2</v>
+        <v>3.9289999999999992E-2</v>
       </c>
     </row>
     <row r="305" spans="2:6" x14ac:dyDescent="0.6">
@@ -59264,7 +59264,7 @@
       </c>
       <c r="F305" s="33">
         <f t="shared" si="4"/>
-        <v>3.2959999999999996E-2</v>
+        <v>3.542E-2</v>
       </c>
     </row>
     <row r="306" spans="2:6" x14ac:dyDescent="0.6">
@@ -59282,7 +59282,7 @@
       </c>
       <c r="F306" s="33">
         <f t="shared" si="4"/>
-        <v>2.9399999999999999E-2</v>
+        <v>3.1550000000000002E-2</v>
       </c>
     </row>
     <row r="307" spans="2:6" x14ac:dyDescent="0.6">
@@ -59300,7 +59300,7 @@
       </c>
       <c r="F307" s="33">
         <f t="shared" si="4"/>
-        <v>2.5840000000000002E-2</v>
+        <v>2.7680000000000003E-2</v>
       </c>
     </row>
     <row r="308" spans="2:6" x14ac:dyDescent="0.6">
@@ -59318,7 +59318,7 @@
       </c>
       <c r="F308" s="33">
         <f t="shared" si="4"/>
-        <v>2.2279999999999998E-2</v>
+        <v>2.3809999999999998E-2</v>
       </c>
     </row>
     <row r="309" spans="2:6" x14ac:dyDescent="0.6">
@@ -59336,7 +59336,7 @@
       </c>
       <c r="F309" s="33">
         <f t="shared" si="4"/>
-        <v>1.8720000000000001E-2</v>
+        <v>1.9940000000000003E-2</v>
       </c>
     </row>
     <row r="310" spans="2:6" x14ac:dyDescent="0.6">
@@ -59354,7 +59354,7 @@
       </c>
       <c r="F310" s="33">
         <f t="shared" si="4"/>
-        <v>1.516E-2</v>
+        <v>1.6070000000000001E-2</v>
       </c>
     </row>
     <row r="311" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -59372,7 +59372,7 @@
       </c>
       <c r="F311" s="33">
         <f t="shared" si="4"/>
-        <v>1.1599999999999999E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
     </row>
     <row r="312" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6">
@@ -59390,7 +59390,7 @@
       </c>
       <c r="F312" s="33">
         <f t="shared" si="4"/>
-        <v>5.7999999999999996E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="313" spans="2:6" x14ac:dyDescent="0.6">
@@ -59408,7 +59408,7 @@
       </c>
       <c r="F313" s="33">
         <f t="shared" si="4"/>
-        <v>6.3800000000000003E-3</v>
+        <v>6.2599999999999999E-3</v>
       </c>
     </row>
     <row r="314" spans="2:6" x14ac:dyDescent="0.6">
@@ -59426,7 +59426,7 @@
       </c>
       <c r="F314" s="33">
         <f t="shared" si="4"/>
-        <v>6.96E-3</v>
+        <v>6.9200000000000008E-3</v>
       </c>
     </row>
     <row r="315" spans="2:6" x14ac:dyDescent="0.6">
@@ -59444,7 +59444,7 @@
       </c>
       <c r="F315" s="33">
         <f t="shared" si="4"/>
-        <v>7.539999999999999E-3</v>
+        <v>7.5799999999999999E-3</v>
       </c>
     </row>
     <row r="316" spans="2:6" x14ac:dyDescent="0.6">
@@ -59462,7 +59462,7 @@
       </c>
       <c r="F316" s="33">
         <f t="shared" si="4"/>
-        <v>8.1199999999999987E-3</v>
+        <v>8.2400000000000008E-3</v>
       </c>
     </row>
     <row r="317" spans="2:6" x14ac:dyDescent="0.6">
@@ -59480,7 +59480,7 @@
       </c>
       <c r="F317" s="33">
         <f t="shared" si="4"/>
-        <v>8.6999999999999994E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
     </row>
     <row r="318" spans="2:6" x14ac:dyDescent="0.6">
@@ -59498,7 +59498,7 @@
       </c>
       <c r="F318" s="33">
         <f t="shared" si="4"/>
-        <v>9.2800000000000001E-3</v>
+        <v>9.5600000000000008E-3</v>
       </c>
     </row>
     <row r="319" spans="2:6" x14ac:dyDescent="0.6">
@@ -59516,7 +59516,7 @@
       </c>
       <c r="F319" s="33">
         <f t="shared" si="4"/>
-        <v>9.859999999999999E-3</v>
+        <v>1.022E-2</v>
       </c>
     </row>
     <row r="320" spans="2:6" x14ac:dyDescent="0.6">
@@ -59534,7 +59534,7 @@
       </c>
       <c r="F320" s="33">
         <f t="shared" si="4"/>
-        <v>1.044E-2</v>
+        <v>1.0880000000000001E-2</v>
       </c>
     </row>
     <row r="321" spans="2:6" x14ac:dyDescent="0.6">
@@ -59552,7 +59552,7 @@
       </c>
       <c r="F321" s="33">
         <f t="shared" si="4"/>
-        <v>1.102E-2</v>
+        <v>1.154E-2</v>
       </c>
     </row>
     <row r="322" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -59570,7 +59570,7 @@
       </c>
       <c r="F322" s="33">
         <f t="shared" si="4"/>
-        <v>1.1599999999999999E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
     </row>
     <row r="323" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.6"/>
